--- a/myCCB/www/xMDA/xMDA_tables/figure-3a-table.xlsx
+++ b/myCCB/www/xMDA/xMDA_tables/figure-3a-table.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr date1904="false"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t xml:space="preserve">Year-Quarter</t>
   </si>
@@ -59,22 +59,31 @@
     <t xml:space="preserve">2020 Q2</t>
   </si>
   <si>
+    <t xml:space="preserve">2021 Q2</t>
+  </si>
+  <si>
     <t xml:space="preserve">2017-19 Q3</t>
   </si>
   <si>
     <t xml:space="preserve">2020 Q3</t>
   </si>
   <si>
+    <t xml:space="preserve">2021 Q3</t>
+  </si>
+  <si>
     <t xml:space="preserve">2017-19 Q4</t>
   </si>
   <si>
     <t xml:space="preserve">2020 Q4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021 Q4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
@@ -114,8 +123,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:D55" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:D55"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:D73" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:D73"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Year-Quarter"/>
     <tableColumn id="2" name="Race/Ethnicity"/>
@@ -404,10 +413,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
@@ -453,7 +462,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>173.3</v>
+        <v>173.9</v>
       </c>
       <c r="D3" t="n">
         <v>9.7</v>
@@ -467,7 +476,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>247.3</v>
+        <v>248</v>
       </c>
       <c r="D4" t="n">
         <v>11.2</v>
@@ -509,7 +518,7 @@
         <v>8</v>
       </c>
       <c r="C7" t="n">
-        <v>165.3</v>
+        <v>165.4</v>
       </c>
       <c r="D7" t="n">
         <v>1.5</v>
@@ -551,7 +560,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>301.4</v>
+        <v>303.4</v>
       </c>
       <c r="D10" t="n">
         <v>3.5</v>
@@ -593,7 +602,7 @@
         <v>10</v>
       </c>
       <c r="C13" t="n">
-        <v>260.7</v>
+        <v>261.1</v>
       </c>
       <c r="D13" t="n">
         <v>1.5</v>
@@ -635,7 +644,7 @@
         <v>11</v>
       </c>
       <c r="C16" t="n">
-        <v>299.3</v>
+        <v>298.8</v>
       </c>
       <c r="D16" t="n">
         <v>14.3</v>
@@ -677,7 +686,7 @@
         <v>12</v>
       </c>
       <c r="C19" t="n">
-        <v>192.4</v>
+        <v>193</v>
       </c>
       <c r="D19" t="n">
         <v>0.9</v>
@@ -713,58 +722,58 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C22" t="n">
-        <v>97.6</v>
+        <v>189.7</v>
       </c>
       <c r="D22" t="n">
-        <v>1.2</v>
+        <v>9.8</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B23" t="s">
         <v>8</v>
       </c>
       <c r="C23" t="n">
-        <v>113.3</v>
+        <v>97.6</v>
       </c>
       <c r="D23" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C24" t="n">
-        <v>210.5</v>
+        <v>113.3</v>
       </c>
       <c r="D24" t="n">
-        <v>3.1</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C25" t="n">
-        <v>246.9</v>
+        <v>100.1</v>
       </c>
       <c r="D25" t="n">
-        <v>3.2</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="26">
@@ -772,13 +781,13 @@
         <v>13</v>
       </c>
       <c r="B26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C26" t="n">
-        <v>124.5</v>
+        <v>210.5</v>
       </c>
       <c r="D26" t="n">
-        <v>1.1</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="27">
@@ -786,97 +795,97 @@
         <v>14</v>
       </c>
       <c r="B27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C27" t="n">
-        <v>155.7</v>
+        <v>246.9</v>
       </c>
       <c r="D27" t="n">
-        <v>1.2</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B28" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C28" t="n">
-        <v>184.9</v>
+        <v>214</v>
       </c>
       <c r="D28" t="n">
-        <v>12.1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B29" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C29" t="n">
-        <v>204.1</v>
+        <v>124.5</v>
       </c>
       <c r="D29" t="n">
-        <v>12.3</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B30" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C30" t="n">
-        <v>156.3</v>
+        <v>155.7</v>
       </c>
       <c r="D30" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B31" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C31" t="n">
-        <v>158.6</v>
+        <v>130.4</v>
       </c>
       <c r="D31" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B32" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C32" t="n">
-        <v>158.8</v>
+        <v>184.9</v>
       </c>
       <c r="D32" t="n">
-        <v>9.3</v>
+        <v>12.1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B33" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C33" t="n">
-        <v>199.5</v>
+        <v>203.2</v>
       </c>
       <c r="D33" t="n">
-        <v>10.2</v>
+        <v>12.2</v>
       </c>
     </row>
     <row r="34">
@@ -884,97 +893,97 @@
         <v>15</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C34" t="n">
-        <v>93.5</v>
+        <v>203.3</v>
       </c>
       <c r="D34" t="n">
-        <v>1.2</v>
+        <v>11.8</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C35" t="n">
-        <v>114.4</v>
+        <v>156.3</v>
       </c>
       <c r="D35" t="n">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B36" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C36" t="n">
-        <v>205.7</v>
+        <v>158.6</v>
       </c>
       <c r="D36" t="n">
-        <v>3</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B37" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C37" t="n">
-        <v>255.3</v>
+        <v>149.7</v>
       </c>
       <c r="D37" t="n">
-        <v>3.3</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B38" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C38" t="n">
-        <v>120.5</v>
+        <v>158.8</v>
       </c>
       <c r="D38" t="n">
-        <v>1.1</v>
+        <v>9.3</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B39" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C39" t="n">
-        <v>176.4</v>
+        <v>199.5</v>
       </c>
       <c r="D39" t="n">
-        <v>1.3</v>
+        <v>10.2</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B40" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C40" t="n">
-        <v>180.6</v>
+        <v>225.5</v>
       </c>
       <c r="D40" t="n">
-        <v>12</v>
+        <v>10.9</v>
       </c>
     </row>
     <row r="41">
@@ -982,97 +991,97 @@
         <v>16</v>
       </c>
       <c r="B41" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C41" t="n">
-        <v>230.4</v>
+        <v>93.5</v>
       </c>
       <c r="D41" t="n">
-        <v>13</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B42" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C42" t="n">
-        <v>150.5</v>
+        <v>114.4</v>
       </c>
       <c r="D42" t="n">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B43" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C43" t="n">
-        <v>165.5</v>
+        <v>106.4</v>
       </c>
       <c r="D43" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B44" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C44" t="n">
-        <v>164.3</v>
+        <v>205.7</v>
       </c>
       <c r="D44" t="n">
-        <v>9.4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B45" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C45" t="n">
-        <v>224.6</v>
+        <v>255.3</v>
       </c>
       <c r="D45" t="n">
-        <v>10.8</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="n">
-        <v>103.6</v>
+        <v>244.7</v>
       </c>
       <c r="D46" t="n">
-        <v>1.3</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C47" t="n">
-        <v>142.9</v>
+        <v>120.5</v>
       </c>
       <c r="D47" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="48">
@@ -1080,13 +1089,13 @@
         <v>17</v>
       </c>
       <c r="B48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C48" t="n">
-        <v>222</v>
+        <v>176.5</v>
       </c>
       <c r="D48" t="n">
-        <v>3.2</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="49">
@@ -1094,69 +1103,69 @@
         <v>18</v>
       </c>
       <c r="B49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C49" t="n">
-        <v>282.6</v>
+        <v>153.7</v>
       </c>
       <c r="D49" t="n">
-        <v>3.4</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C50" t="n">
-        <v>129.9</v>
+        <v>180.6</v>
       </c>
       <c r="D50" t="n">
-        <v>1.2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C51" t="n">
-        <v>214.2</v>
+        <v>230.4</v>
       </c>
       <c r="D51" t="n">
-        <v>1.4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B52" t="s">
         <v>11</v>
       </c>
       <c r="C52" t="n">
-        <v>197.1</v>
+        <v>255</v>
       </c>
       <c r="D52" t="n">
-        <v>12.5</v>
+        <v>13.2</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C53" t="n">
-        <v>269.9</v>
+        <v>150.5</v>
       </c>
       <c r="D53" t="n">
-        <v>14</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="54">
@@ -1167,10 +1176,10 @@
         <v>12</v>
       </c>
       <c r="C54" t="n">
-        <v>162.1</v>
+        <v>165.6</v>
       </c>
       <c r="D54" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="55">
@@ -1181,9 +1190,261 @@
         <v>12</v>
       </c>
       <c r="C55" t="n">
-        <v>185.8</v>
+        <v>165</v>
       </c>
       <c r="D55" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>19</v>
+      </c>
+      <c r="B56" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56" t="n">
+        <v>164.3</v>
+      </c>
+      <c r="D56" t="n">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>20</v>
+      </c>
+      <c r="B57" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57" t="n">
+        <v>225.4</v>
+      </c>
+      <c r="D57" t="n">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>21</v>
+      </c>
+      <c r="B58" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58" t="n">
+        <v>237.4</v>
+      </c>
+      <c r="D58" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>19</v>
+      </c>
+      <c r="B59" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" t="n">
+        <v>103.6</v>
+      </c>
+      <c r="D59" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>20</v>
+      </c>
+      <c r="B60" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" t="n">
+        <v>143</v>
+      </c>
+      <c r="D60" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>21</v>
+      </c>
+      <c r="B61" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61" t="n">
+        <v>113.8</v>
+      </c>
+      <c r="D61" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>19</v>
+      </c>
+      <c r="B62" t="s">
+        <v>9</v>
+      </c>
+      <c r="C62" t="n">
+        <v>222</v>
+      </c>
+      <c r="D62" t="n">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>20</v>
+      </c>
+      <c r="B63" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63" t="n">
+        <v>283</v>
+      </c>
+      <c r="D63" t="n">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>21</v>
+      </c>
+      <c r="B64" t="s">
+        <v>9</v>
+      </c>
+      <c r="C64" t="n">
+        <v>245.2</v>
+      </c>
+      <c r="D64" t="n">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>19</v>
+      </c>
+      <c r="B65" t="s">
+        <v>10</v>
+      </c>
+      <c r="C65" t="n">
+        <v>129.9</v>
+      </c>
+      <c r="D65" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>20</v>
+      </c>
+      <c r="B66" t="s">
+        <v>10</v>
+      </c>
+      <c r="C66" t="n">
+        <v>214.3</v>
+      </c>
+      <c r="D66" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>21</v>
+      </c>
+      <c r="B67" t="s">
+        <v>10</v>
+      </c>
+      <c r="C67" t="n">
+        <v>160.5</v>
+      </c>
+      <c r="D67" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>19</v>
+      </c>
+      <c r="B68" t="s">
+        <v>11</v>
+      </c>
+      <c r="C68" t="n">
+        <v>197.1</v>
+      </c>
+      <c r="D68" t="n">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>20</v>
+      </c>
+      <c r="B69" t="s">
+        <v>11</v>
+      </c>
+      <c r="C69" t="n">
+        <v>269.9</v>
+      </c>
+      <c r="D69" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>21</v>
+      </c>
+      <c r="B70" t="s">
+        <v>11</v>
+      </c>
+      <c r="C70" t="n">
+        <v>239.6</v>
+      </c>
+      <c r="D70" t="n">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>19</v>
+      </c>
+      <c r="B71" t="s">
+        <v>12</v>
+      </c>
+      <c r="C71" t="n">
+        <v>162.1</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>20</v>
+      </c>
+      <c r="B72" t="s">
+        <v>12</v>
+      </c>
+      <c r="C72" t="n">
+        <v>186</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>21</v>
+      </c>
+      <c r="B73" t="s">
+        <v>12</v>
+      </c>
+      <c r="C73" t="n">
+        <v>172.3</v>
+      </c>
+      <c r="D73" t="n">
         <v>0.9</v>
       </c>
     </row>
